--- a/symbols/!Capacitor-1206.xlsx
+++ b/symbols/!Capacitor-1206.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwal\VSCode\KiCAD\electronics-library\symbols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBCB5E3-122A-48D7-A1D3-6F2788466DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C95A91-B188-49CA-9867-1DEF3D33616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="24840" windowHeight="19965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32850" yWindow="1890" windowWidth="21600" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~Template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
   <si>
     <t>Symbol Name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>10nF</t>
   </si>
   <si>
-    <t>10nF 50V X7R ±10% 1206 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>X7R</t>
   </si>
   <si>
@@ -77,15 +74,9 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>1uF 50V X7R ±10% 1206 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>C1848</t>
   </si>
   <si>
-    <t>1nF 2kV X7R ±10% 1206 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>1nF</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>C12891</t>
   </si>
   <si>
-    <t>22uF 25V X5R ±10% 1206 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>22uF</t>
   </si>
   <si>
@@ -113,54 +101,36 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>10uF 50V X5R ±10% 1206 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>C13585</t>
   </si>
   <si>
     <t>100uF</t>
   </si>
   <si>
-    <t>100uF 6.3V X5R ±20% 1206 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>C15008</t>
   </si>
   <si>
     <t>6.3V</t>
   </si>
   <si>
-    <t>100nF 50V X7R ±10% 1206 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
     <t>C24497</t>
   </si>
   <si>
-    <t>4.7uF 50V X7R ±10% 1206 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>C29823</t>
   </si>
   <si>
     <t>4.7uF</t>
   </si>
   <si>
-    <t>2.2uF 50V X7R ±10% 1206 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>2.2uF</t>
   </si>
   <si>
     <t>C50254</t>
   </si>
   <si>
-    <t>10V 47uF X5R ±20% 1206 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>10V</t>
   </si>
   <si>
@@ -168,24 +138,133 @@
   </si>
   <si>
     <t>47uF</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_FH--Guangdong-Fenghua-Advanced-Tech-1206B103K500NT_C1846.pdf</t>
+  </si>
+  <si>
+    <t>±10%</t>
+  </si>
+  <si>
+    <t>10nF 50V X7R ±10%</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_Samsung-Electro-Mechanics-CL31B105KBHNNNE_C1848.pdf</t>
+  </si>
+  <si>
+    <t>1uF 50V X7R ±10%</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C1857</t>
+  </si>
+  <si>
+    <t>cap capacitor extended</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_FH--Guangdong-Fenghua-Advanced-Tech-1206B224K500NT_C1857.pdf</t>
+  </si>
+  <si>
+    <t>220nF 50V X7R ±10%</t>
+  </si>
+  <si>
+    <t>C5672</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_1810221121_Samsung-Electro-Mechanics-CL31A226KPHNNNE_C5672.pdf</t>
+  </si>
+  <si>
+    <t>22uF 10V X5R ±10%</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_FH--Guangdong-Fenghua-Advanced-Tech-1206B102K202NT_C9196.pdf</t>
+  </si>
+  <si>
+    <t>1nF 2kV X7R ±10%</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_Samsung-Electro-Mechanics-CL31A226KAHNNNE_C12891.pdf</t>
+  </si>
+  <si>
+    <t>22uF 25V X5R ±10%</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_Samsung-Electro-Mechanics-CL31A106KBHNNNE_C13585.pdf</t>
+  </si>
+  <si>
+    <t>10uF 50V X5R ±10%</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_Samsung-Electro-Mechanics-CL31A107MQHNNNE_C15008.pdf</t>
+  </si>
+  <si>
+    <t>±20%</t>
+  </si>
+  <si>
+    <t>100uF 6.3V X5R ±20%</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_Samsung-Electro-Mechanics-CL31B104KBCNNNC_C24497.pdf</t>
+  </si>
+  <si>
+    <t>100nF 50V X7R ±10%</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_FH--Guangdong-Fenghua-Advanced-Tech-1206B475K500NT_C29823.pdf</t>
+  </si>
+  <si>
+    <t>4.7uF 50V X7R ±10%</t>
+  </si>
+  <si>
+    <t>C35216</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_Samsung-Electro-Mechanics-CL31B102KGFNNNE_C35216.pdf</t>
+  </si>
+  <si>
+    <t>500V</t>
+  </si>
+  <si>
+    <t>1nF 500V X7R ±10%</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_Samsung-Electro-Mechanics-CL31B225KBHNNNE_C50254.pdf</t>
+  </si>
+  <si>
+    <t>2.2uF 50V X7R ±10%</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_2304140030_Samsung-Electro-Mechanics-CL31A476MPHNNNE_C96123.pdf</t>
+  </si>
+  <si>
+    <t>47uF 10V X5R ±20%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,36 +275,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -234,19 +287,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -544,283 +602,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>_xlfn.TEXTJOIN("_", TRUE, H2,I2,F2)</f>
+        <v>10nF_X7R_50V</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="str">
-        <f>A2</f>
-        <v>10nF</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A14" si="0">_xlfn.TEXTJOIN("_", TRUE, H3,I3,F3)</f>
+        <v>1uF_X7R_50V</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>220nF_X7R_50V</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>22uF_X5R_10V</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>1nF_X7R_2kV</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B11" si="0">A3</f>
-        <v>1uF</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>22uF_X5R_25V</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>10uF_X5R_50V</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>100uF_X5R_6.3V</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="str">
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>1nF</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+        <v>100nF_X7R_50V</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>22uF</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>10uF</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>100uF</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>100nF</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>4.7uF</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>2.2uF</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="str">
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>47uF</v>
+        <v>4.7uF_X7R_50V</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>1nF_X7R_500V</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>2.2uF_X7R_50V</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>47uF_X5R_10V</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/symbols/!Capacitor-1206.xlsx
+++ b/symbols/!Capacitor-1206.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwal\VSCode\KiCAD\electronics-library\symbols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C95A91-B188-49CA-9867-1DEF3D33616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC501907-3CE3-4446-864F-F7A75A91DFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32850" yWindow="1890" windowWidth="21600" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52020" yWindow="975" windowWidth="22740" windowHeight="17595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~Template" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>ki_keywords</t>
   </si>
   <si>
-    <t>JLCPCB</t>
-  </si>
-  <si>
     <t>C1846</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>47uF 10V X5R ±20%</t>
+  </si>
+  <si>
+    <t>JLCPCB PN</t>
   </si>
 </sst>
 </file>
@@ -605,32 +605,39 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -648,31 +655,31 @@
         <v>10nF_X7R_50V</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,31 +688,31 @@
         <v>1uF_X7R_50V</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
         <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -714,31 +721,31 @@
         <v>220nF_X7R_50V</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
         <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,31 +754,31 @@
         <v>22uF_X5R_10V</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -780,31 +787,31 @@
         <v>1nF_X7R_2kV</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
         <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -813,31 +820,31 @@
         <v>22uF_X5R_25V</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -846,31 +853,31 @@
         <v>10uF_X5R_50V</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>56</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -879,31 +886,31 @@
         <v>100uF_X5R_6.3V</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
         <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -912,31 +919,31 @@
         <v>100nF_X7R_50V</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -945,31 +952,31 @@
         <v>4.7uF_X7R_50V</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -978,31 +985,31 @@
         <v>1nF_X7R_500V</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1011,31 +1018,31 @@
         <v>2.2uF_X7R_50V</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,31 +1051,31 @@
         <v>47uF_X5R_10V</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
